--- a/EL SALVADOR/Variables Género y Pueblos Indígenas ESV/Población Económicamente Activa.xlsx
+++ b/EL SALVADOR/Variables Género y Pueblos Indígenas ESV/Población Económicamente Activa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\OneDrive\Escritorio\Variables Género y Pueblos Indígenas ESV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\EL SALVADOR\Variables Género y Pueblos Indígenas ESV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B939EDF0-8639-4284-8CF8-D259AE93AEE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FEA596-88CC-4A40-AAAC-B0F28645D9D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excel (13)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4735" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4737" uniqueCount="267">
   <si>
     <t>SEXO</t>
   </si>
@@ -811,16 +811,22 @@
     <t>MUNICIPIO</t>
   </si>
   <si>
-    <t>Personas en Edad de Trabajar</t>
-  </si>
-  <si>
     <t>POBLACIÓN</t>
+  </si>
+  <si>
+    <t>PERSONAS CON EDAD PARA TRABAJAR</t>
+  </si>
+  <si>
+    <t>PEA = Personas Económicamente Activa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEI = Personas </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1369,42 +1375,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FFC5C5C5"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFC5C5C5"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -1444,26 +1414,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1516,6 +1466,62 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFC5C5C5"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFC5C5C5"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1530,13 +1536,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Poblacion_Economicamente_Activa_ESV" displayName="Poblacion_Economicamente_Activa_ESV" ref="A2:D1579" totalsRowShown="0" headerRowDxfId="0" dataDxfId="3">
-  <autoFilter ref="A2:D1579"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Poblacion_Economicamente_Activa_ESV" displayName="Poblacion_Economicamente_Activa_ESV" ref="A2:D1579" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A2:D1579" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="SEXO" dataDxfId="5"/>
-    <tableColumn id="2" name="MUNICIPIO" dataDxfId="4"/>
-    <tableColumn id="3" name="Personas en Edad de Trabajar" dataDxfId="2"/>
-    <tableColumn id="4" name="POBLACIÓN" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SEXO" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MUNICIPIO" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PERSONAS CON EDAD PARA TRABAJAR" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="POBLACIÓN" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1838,22 +1844,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D1579"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:F1579"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1861,13 +1867,13 @@
         <v>262</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1881,7 +1887,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1894,8 +1900,11 @@
       <c r="D4" s="3">
         <v>5302</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1908,8 +1917,11 @@
       <c r="D5" s="3">
         <v>1865</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1923,7 +1935,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1937,7 +1949,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1951,7 +1963,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1965,7 +1977,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1979,7 +1991,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1993,7 +2005,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2007,7 +2019,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -2021,7 +2033,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -2035,7 +2047,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -2049,7 +2061,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
